--- a/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
+++ b/InputData/trans/BMRESP/BAU Min Req EV Sales Perc.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BMRESP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="23955" windowHeight="12090"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>BMRESP BAU Minimum Required EV Sales Percentage</t>
   </si>
@@ -53,11 +58,14 @@
   <si>
     <t>in the United States for any vehicle type.</t>
   </si>
+  <si>
+    <t>Sales Percentage (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,9 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,6 +118,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -155,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -403,14 +417,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -418,17 +432,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -448,12 +462,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B1">
         <v>2016</v>
       </c>
@@ -560,7 +577,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -670,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -780,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -890,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1000,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1110,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1234,12 +1251,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B1">
         <v>2016</v>
       </c>
@@ -1346,7 +1366,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1566,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1676,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1786,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1896,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
